--- a/fichiers_excel/february.xlsx
+++ b/fichiers_excel/february.xlsx
@@ -1,67 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Desktop/openpyxl/fichiers_excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89D792-4856-274F-A7B0-E0B2339588E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>February 2020 Sales</t>
+  </si>
+  <si>
+    <t>Global Sales Report</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Blueberries</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,109 +133,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
+    <cellStyle name="Monétaire" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17"/>
-    <cellStyle name="Currency" xfId="4" builtinId="4" hidden="0"/>
+    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Titre 2" xfId="2" builtinId="17"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F8" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F8" totalsRowShown="0">
   <tableColumns count="6">
-    <tableColumn id="1" name="Location"/>
-    <tableColumn id="2" name="Oranges"/>
-    <tableColumn id="3" name="Apples"/>
-    <tableColumn id="4" name="Bananas"/>
-    <tableColumn id="5" name="Blueberries"/>
-    <tableColumn id="6" name="Total"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Location"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oranges"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Apples"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Bananas"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Blueberries"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -498,176 +475,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="9.83203125" customWidth="1" min="1" max="1"/>
-    <col width="11.33203125" customWidth="1" min="2" max="2"/>
-    <col width="10.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="9.83203125" customWidth="1" min="4" max="4"/>
-    <col width="12.33203125" customWidth="1" min="5" max="5"/>
-    <col width="11.1640625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>February 2020 Sales</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Global Sales Report</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" thickTop="1"/>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Oranges</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Blueberries</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Toronto</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
+    <row r="1" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
         <v>4180</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>1622</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>5471</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>1201</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>12474</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Los Angeles</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
         <v>9436</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>1645</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>4429</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>9420</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>24930</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
         <v>3556</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>5343</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>5555</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>3158</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>17612</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
         <v>5430</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>2331</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>5006</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>2303</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>15070</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Total Global</t>
-        </is>
-      </c>
-      <c r="F9" s="5">
-        <f>SUM(F5:F8)</f>
-        <v/>
-      </c>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
